--- a/Assets/Saito/Resources/Data/MapData.xlsx
+++ b/Assets/Saito/Resources/Data/MapData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\52prt\Assets\Saito\Resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\52Projects\FreewheelExciter\Assets\Saito\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -511,7 +511,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -531,7 +531,7 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -611,7 +611,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>17</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
